--- a/data/output/Pedido_Semana_14_2026-02-03_fitos.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_fitos.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>23.97</v>
@@ -1200,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>59.8</v>
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4" t="n">
         <v>13.98</v>
@@ -1398,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>55.92</v>
@@ -1946,12 +1946,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3302200022</t>
+          <t>3302200023</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>COMPO TURBO RAICES 50GR</t>
+          <t>COMPO TURBO REVERDECIENTE 20GR</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>3.99</v>
@@ -1980,28 +1980,28 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>7.98</v>
+        <v>3.99</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
       <c r="P23" s="5" t="inlineStr">
         <is>
@@ -2012,12 +2012,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>3302200023</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>COMPO TURBO REVERDECIENTE 20GR</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -2036,38 +2036,38 @@
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>3.99</v>
+        <v>4.99</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K24" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>3.99</v>
+        <v>19.96</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>2.03</v>
+        <v>10.96</v>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
@@ -2078,12 +2078,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -2102,38 +2102,38 @@
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>4.99</v>
+        <v>6.99</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>19.96</v>
+        <v>6.99</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10.96</v>
+        <v>3.49</v>
       </c>
       <c r="P25" s="5" t="inlineStr">
         <is>
@@ -2144,12 +2144,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3302210013</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>REVERDECIENTE PLANTAS VERDE 500ML</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2171,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>6.99</v>
+        <v>12.49</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>3.5</v>
+        <v>5.64</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K26" s="3" t="n">
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>6.99</v>
+        <v>12.49</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>3.49</v>
+        <v>6.85</v>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
@@ -2210,12 +2210,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3302210013</t>
+          <t>3302210018</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>REVERDECIENTE PLANTAS VERDE 500ML</t>
+          <t>COMPO REVITAL PLANTAS VERDES 30ML</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2234,38 +2234,38 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>12.49</v>
+        <v>1.99</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>5.64</v>
+        <v>0.79</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>12.49</v>
+        <v>75.62</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>6.85</v>
+        <v>45.6</v>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
@@ -2276,22 +2276,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>3302210018</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>COMPO REVITAL PLANTAS VERDES 30ML</t>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">1,3L     </t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -2300,13 +2300,13 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>1.99</v>
+        <v>9.99</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0.79</v>
+        <v>4.96</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
@@ -2319,19 +2319,19 @@
         </is>
       </c>
       <c r="K28" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>75.62</v>
+        <v>29.97</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>45.6</v>
+        <v>15.09</v>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,3L     </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -2366,38 +2366,38 @@
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>4.96</v>
+        <v>3.49</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>29.97</v>
+        <v>7.99</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>15.09</v>
+        <v>4.5</v>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
@@ -2408,22 +2408,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040003</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
+          <t>FERTILIZANTE PLANTAS VERDES 1,3L</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2432,38 +2432,38 @@
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>3.49</v>
+        <v>4.72</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>7.99</v>
+        <v>29.97</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4.5</v>
+        <v>15.81</v>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
@@ -2474,12 +2474,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3402040003</t>
+          <t>3402060001</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 1,3L</t>
+          <t>BIO FERTILIZANTE CACTUS 500ML</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>4.72</v>
+        <v>3.39</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -2517,19 +2517,19 @@
         </is>
       </c>
       <c r="K31" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>29.97</v>
+        <v>34.95</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>15.81</v>
+        <v>18</v>
       </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3402060001</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE CACTUS 500ML</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2564,13 +2564,13 @@
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>6.99</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
@@ -2579,23 +2579,23 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>34.95</v>
+        <v>6.99</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>18</v>
+        <v>3.42</v>
       </c>
       <c r="P32" s="5" t="inlineStr">
         <is>
@@ -2606,22 +2606,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>ABONO CESPED GRANDES JARDINES</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">7I5KG    </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>6.99</v>
+        <v>44.95</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>3.57</v>
+        <v>23.92</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
@@ -2645,23 +2645,23 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>6.99</v>
+        <v>179.8</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3.42</v>
+        <v>84.12</v>
       </c>
       <c r="P33" s="5" t="inlineStr">
         <is>
@@ -2672,22 +2672,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3501020002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
+          <t>TRIPLE ACCION 750ML</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7I5KG    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>44.95</v>
+        <v>8.99</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>23.92</v>
+        <v>4.37</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2715,19 +2715,19 @@
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>179.8</v>
+        <v>8.99</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>84.12</v>
+        <v>4.62</v>
       </c>
       <c r="P34" s="5" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3501020002</t>
+          <t>3501040004</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE ACCION 750ML</t>
+          <t>COMPO INSECT PULGON 750ML</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>8.99</v>
+        <v>13.99</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>4.37</v>
+        <v>6.77</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
@@ -2777,23 +2777,23 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>8.99</v>
+        <v>27.98</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>4.62</v>
+        <v>14.44</v>
       </c>
       <c r="P35" s="5" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3501040004</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>COMPO INSECT PULGON 750ML</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2828,13 +2828,13 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>13.99</v>
+        <v>10.49</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>6.77</v>
+        <v>4.52</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
@@ -2843,23 +2843,23 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K36" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>27.98</v>
+        <v>52.45</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>14.44</v>
+        <v>29.85</v>
       </c>
       <c r="P36" s="5" t="inlineStr">
         <is>
@@ -2870,12 +2870,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3502010008</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>COMPO DUAXO FUNGICIDA POLIVALENTE 750 ML</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>10.49</v>
+        <v>14.99</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>4.52</v>
+        <v>7.62</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
@@ -2909,23 +2909,23 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>52.45</v>
+        <v>29.98</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>29.85</v>
+        <v>14.74</v>
       </c>
       <c r="P37" s="5" t="inlineStr">
         <is>
@@ -2936,22 +2936,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3502010008</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>COMPO DUAXO FUNGICIDA POLIVALENTE 750 ML</t>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">250GR    </t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>14.99</v>
+        <v>17.87</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>7.62</v>
+        <v>7.87</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>29.98</v>
+        <v>17.87</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>14.74</v>
+        <v>10</v>
       </c>
       <c r="P38" s="5" t="inlineStr">
         <is>
@@ -3002,22 +3002,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">250GR    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>17.87</v>
+        <v>14.95</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>7.87</v>
+        <v>7.62</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
@@ -3041,23 +3041,23 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>17.87</v>
+        <v>29.9</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>10</v>
+        <v>14.66</v>
       </c>
       <c r="P39" s="5" t="inlineStr">
         <is>
@@ -3068,12 +3068,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -3095,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>14.95</v>
+        <v>16.95</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>7.62</v>
+        <v>7.08</v>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K40" s="3" t="n">
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>29.9</v>
+        <v>33.9</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>14.66</v>
+        <v>19.74</v>
       </c>
       <c r="P40" s="5" t="inlineStr">
         <is>
@@ -3134,12 +3134,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -3161,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>16.95</v>
+        <v>14.49</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>7.08</v>
+        <v>6.63</v>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K41" s="3" t="n">
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>33.9</v>
+        <v>28.98</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>19.74</v>
+        <v>15.72</v>
       </c>
       <c r="P41" s="5" t="inlineStr">
         <is>
@@ -3200,22 +3200,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>COMPO COBRE FUNGICIDA BIOLOGICO</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">50G      </t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>14.49</v>
+        <v>3.99</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>6.63</v>
+        <v>1.79</v>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K42" s="3" t="n">
@@ -3249,13 +3249,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>28.98</v>
+        <v>3.99</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>15.72</v>
+        <v>2.2</v>
       </c>
       <c r="P42" s="5" t="inlineStr">
         <is>
@@ -3266,22 +3266,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3603020002</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>COMPO COBRE FUNGICIDA BIOLOGICO</t>
+          <t>INSECTICIDA AXIENDO 750ML</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50G      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -3290,38 +3290,38 @@
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>3.99</v>
+        <v>14.99</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.79</v>
+        <v>7.2</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>3.99</v>
+        <v>29.98</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2.2</v>
+        <v>15.58</v>
       </c>
       <c r="P43" s="5" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3603020002</t>
+          <t>3701020003</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA AXIENDO 750ML</t>
+          <t>HERBISTOP 500ML</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -3359,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>14.99</v>
+        <v>22.49</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>7.2</v>
+        <v>9.69</v>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K44" s="3" t="n">
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>29.98</v>
+        <v>44.98</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>15.58</v>
+        <v>25.6</v>
       </c>
       <c r="P44" s="5" t="inlineStr">
         <is>
@@ -3398,12 +3398,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3701020003</t>
+          <t>3901010002</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>HERBISTOP 500ML</t>
+          <t>ANTILIMACOS 500GR</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>22.49</v>
+        <v>10.5</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>9.69</v>
+        <v>4.73</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
@@ -3447,13 +3447,13 @@
         <v>2</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>44.98</v>
+        <v>31.5</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>25.6</v>
+        <v>17.31</v>
       </c>
       <c r="P45" s="5" t="inlineStr">
         <is>
@@ -3464,12 +3464,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3901010002</t>
+          <t>3901030008</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>ANTILIMACOS 500GR</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS GEL 10GR</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -3491,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>10.5</v>
+        <v>7.99</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>4.73</v>
+        <v>3.21</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K46" s="3" t="n">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>31.5</v>
+        <v>23.97</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>17.31</v>
+        <v>14.34</v>
       </c>
       <c r="P46" s="5" t="inlineStr">
         <is>
@@ -3530,12 +3530,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3901030008</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS GEL 10GR</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3554,38 +3554,38 @@
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>7.99</v>
+        <v>12.95</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>3.21</v>
+        <v>5.86</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>23.97</v>
+        <v>25.9</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>14.34</v>
+        <v>14.18</v>
       </c>
       <c r="P47" s="5" t="inlineStr">
         <is>
@@ -3596,12 +3596,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3901080001</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>BARRERA ANTICUCARACHAS GEL 10GR</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -3620,38 +3620,38 @@
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>12.95</v>
+        <v>7.99</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>5.86</v>
+        <v>3.79</v>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>25.9</v>
+        <v>7.99</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>14.18</v>
+        <v>4.2</v>
       </c>
       <c r="P48" s="5" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3901080001</t>
+          <t>3301080006</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>BARRERA ANTICUCARACHAS GEL 10GR</t>
+          <t>VIGORIZANTE VITABONSAI 30CC</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3689,19 +3689,19 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>7.99</v>
+        <v>9.69</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>3.79</v>
+        <v>4.29</v>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K49" s="3" t="n">
@@ -3714,36 +3714,36 @@
         <v>0</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>7.99</v>
+        <v>9.69</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="P49" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3301080006</t>
+          <t>3301030002</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>VIGORIZANTE VITABONSAI 30CC</t>
+          <t>ABONO NITROFLOWER AZUL</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">5KG      </t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -3752,17 +3752,17 @@
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>9.69</v>
+        <v>14.99</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>4.29</v>
+        <v>6.94</v>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -3771,23 +3771,23 @@
         </is>
       </c>
       <c r="K50" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>9.69</v>
+        <v>104.93</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>5.4</v>
+        <v>56.35</v>
       </c>
       <c r="P50" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5KG      </t>
+          <t xml:space="preserve">2,5Kg    </t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>14.99</v>
+        <v>7.99</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>6.94</v>
+        <v>3.42</v>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
@@ -3840,16 +3840,16 @@
         <v>3</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>104.93</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>56.35</v>
+        <v>45.7</v>
       </c>
       <c r="P51" s="5" t="inlineStr">
         <is>
@@ -3860,17 +3860,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3301030002</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>ABONO NITROFLOWER AZUL</t>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,5Kg    </t>
+          <t xml:space="preserve">1,3L     </t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -3884,13 +3884,13 @@
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>3.42</v>
+        <v>2.95</v>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
@@ -3903,19 +3903,19 @@
         </is>
       </c>
       <c r="K52" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>79.90000000000001</v>
+        <v>41.94</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>45.7</v>
+        <v>24.24</v>
       </c>
       <c r="P52" s="5" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,3L     </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -3950,17 +3950,17 @@
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>6.99</v>
+        <v>5.99</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -3969,19 +3969,19 @@
         </is>
       </c>
       <c r="K53" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>41.94</v>
+        <v>5.99</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>24.24</v>
+        <v>3.41</v>
       </c>
       <c r="P53" s="5" t="inlineStr">
         <is>
@@ -3992,22 +3992,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3302030001</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
+          <t>ABONO CLAVOS FLOR 10506 BLISTER 20UDS</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -4019,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
       <c r="P54" s="5" t="inlineStr">
         <is>
@@ -4058,12 +4058,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>3302030001</t>
+          <t>3302040001</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS FLOR 10506 BLISTER 20UDS</t>
+          <t>ABONO LIQUIDO PLANTAS CON FLOR 1L</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -4085,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>4.49</v>
+        <v>7.5</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1.86</v>
+        <v>3.42</v>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>4.49</v>
+        <v>7.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>2.63</v>
+        <v>4.08</v>
       </c>
       <c r="P55" s="5" t="inlineStr">
         <is>
@@ -4124,22 +4124,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3302040001</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS CON FLOR 1L</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">500ML    </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -4148,38 +4148,38 @@
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>3.42</v>
+        <v>2.33</v>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K56" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>7.5</v>
+        <v>33.75</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>4.08</v>
+        <v>22.1</v>
       </c>
       <c r="P56" s="5" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500ML    </t>
+          <t xml:space="preserve">1L       </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -4214,38 +4214,38 @@
         </is>
       </c>
       <c r="F57" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>6.75</v>
+        <v>6.99</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K57" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>33.75</v>
+        <v>13.98</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>22.1</v>
+        <v>8.48</v>
       </c>
       <c r="P57" s="5" t="inlineStr">
         <is>
@@ -4256,22 +4256,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1L       </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -4283,14 +4283,14 @@
         <v>2</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>6.99</v>
+        <v>8.49</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -4302,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>13.98</v>
+        <v>16.98</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>8.48</v>
+        <v>9.48</v>
       </c>
       <c r="P58" s="5" t="inlineStr">
         <is>
@@ -4322,12 +4322,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -4346,17 +4346,17 @@
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>8.49</v>
+        <v>6.5</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr">
@@ -4368,16 +4368,16 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>16.98</v>
+        <v>6.5</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>9.48</v>
+        <v>4.05</v>
       </c>
       <c r="P59" s="5" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3302200007</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>AMINOR 400ML</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -4412,38 +4412,38 @@
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>6.5</v>
+        <v>10.95</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>2.45</v>
+        <v>4.32</v>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K60" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>6.5</v>
+        <v>164.25</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>4.05</v>
+        <v>99.45</v>
       </c>
       <c r="P60" s="5" t="inlineStr">
         <is>
@@ -4454,12 +4454,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>3302200007</t>
+          <t>3401030001</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>AMINOR 400ML</t>
+          <t>BIOFLOWER FERTIL HUERTA Y FRUTALES 1L</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>10.95</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>4.32</v>
+        <v>3.85</v>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
@@ -4497,19 +4497,19 @@
         </is>
       </c>
       <c r="K61" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>164.25</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>99.45</v>
+        <v>4.94</v>
       </c>
       <c r="P61" s="5" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3401030001</t>
+          <t>3401040001</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTIL HUERTA Y FRUTALES 1L</t>
+          <t>ABONO LIQUIDO GUANO 1300ML</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -4547,10 +4547,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
@@ -4559,23 +4559,23 @@
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4.94</v>
+        <v>4.95</v>
       </c>
       <c r="P62" s="5" t="inlineStr">
         <is>
@@ -4586,12 +4586,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3401040001</t>
+          <t>3402030001</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO GUANO 1300ML</t>
+          <t>ABONO CLAVOS VERDES</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -4610,38 +4610,38 @@
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>7.95</v>
+        <v>3.99</v>
       </c>
       <c r="H63" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L63" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>7.95</v>
+        <v>39.9</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>4.95</v>
+        <v>22</v>
       </c>
       <c r="P63" s="5" t="inlineStr">
         <is>
@@ -4652,22 +4652,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3402030001</t>
+          <t>3402040002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS VERDES</t>
+          <t>ABONO LIQUIDO PLANTAS VERDES</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -4676,38 +4676,38 @@
         </is>
       </c>
       <c r="F64" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>3.99</v>
+        <v>5.5</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K64" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M64" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>39.9</v>
+        <v>11</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>22</v>
+        <v>6.62</v>
       </c>
       <c r="P64" s="5" t="inlineStr">
         <is>
@@ -4718,22 +4718,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3402040002</t>
+          <t>3402050002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS VERDES</t>
+          <t>BRILL PLANTA NATURAL 800ML</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>5.5</v>
+        <v>9.99</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>2.19</v>
+        <v>4.59</v>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
@@ -4757,23 +4757,23 @@
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>11</v>
+        <v>29.97</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>6.62</v>
+        <v>16.2</v>
       </c>
       <c r="P65" s="5" t="inlineStr">
         <is>
@@ -4784,12 +4784,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3402050002</t>
+          <t>3501010004</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>BRILL PLANTA NATURAL 800ML</t>
+          <t>TRIPLE ACCION 750ML AFIDOR</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -4808,17 +4808,17 @@
         </is>
       </c>
       <c r="F66" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>9.99</v>
+        <v>13.99</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>4.59</v>
+        <v>6.16</v>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
@@ -4827,19 +4827,19 @@
         </is>
       </c>
       <c r="K66" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>29.97</v>
+        <v>55.96</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>16.2</v>
+        <v>31.32</v>
       </c>
       <c r="P66" s="5" t="inlineStr">
         <is>
@@ -4850,12 +4850,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3501010004</t>
+          <t>3501070002</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE ACCION 750ML AFIDOR</t>
+          <t>ANTICOCHINILLAS TRATAMIENTO COMPLETO</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="F67" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>13.99</v>
+        <v>19.99</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>6.16</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
@@ -4893,19 +4893,19 @@
         </is>
       </c>
       <c r="K67" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>55.96</v>
+        <v>39.98</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>31.32</v>
+        <v>21.9</v>
       </c>
       <c r="P67" s="5" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3501070002</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>ANTICOCHINILLAS TRATAMIENTO COMPLETO</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4940,13 +4940,13 @@
         </is>
       </c>
       <c r="F68" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>19.99</v>
+        <v>11.95</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>4.56</v>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K68" s="3" t="n">
@@ -4965,13 +4965,13 @@
         <v>2</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>39.98</v>
+        <v>11.95</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>21.9</v>
+        <v>7.39</v>
       </c>
       <c r="P68" s="5" t="inlineStr">
         <is>
@@ -4982,12 +4982,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501140004</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>INSECTICIDA SUELOS 500GR</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -5009,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>11.95</v>
+        <v>9.99</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K69" s="3" t="n">
@@ -5034,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>11.95</v>
+        <v>9.99</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>7.39</v>
+        <v>5.36</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5048,12 +5048,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3501140004</t>
+          <t>3502010006</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELOS 500GR</t>
+          <t>BIOFLOWER AZUFRE/SOFREX CAJA</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -5075,19 +5075,19 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>9.99</v>
+        <v>7.49</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>4.63</v>
+        <v>3.23</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K70" s="3" t="n">
@@ -5100,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>9.99</v>
+        <v>7.49</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>5.36</v>
+        <v>4.26</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5114,12 +5114,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3502010006</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER AZUFRE/SOFREX CAJA</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -5141,10 +5141,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>7.49</v>
+        <v>10.97</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>3.23</v>
+        <v>4.32</v>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K71" s="3" t="n">
@@ -5166,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>7.49</v>
+        <v>10.97</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>4.26</v>
+        <v>6.65</v>
       </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
@@ -5180,12 +5180,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3502010013</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>FUNGICIDA POLIVALENTE SISTEMICO 10 ML</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -5204,17 +5204,17 @@
         </is>
       </c>
       <c r="F72" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>10.97</v>
+        <v>12.95</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>4.32</v>
+        <v>5.48</v>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr">
@@ -5226,16 +5226,16 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>10.97</v>
+        <v>25.9</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>6.65</v>
+        <v>14.94</v>
       </c>
       <c r="P72" s="5" t="inlineStr">
         <is>
@@ -5246,22 +5246,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3502010013</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA POLIVALENTE SISTEMICO 10 ML</t>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">450ML    </t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -5273,10 +5273,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>12.95</v>
+        <v>41.99</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>5.48</v>
+        <v>17.86</v>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>25.9</v>
+        <v>83.98</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>14.94</v>
+        <v>48.26</v>
       </c>
       <c r="P73" s="5" t="inlineStr">
         <is>
@@ -5312,22 +5312,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3603010001</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
+          <t>TRIPLE AMLION ECOLOGICO CONCENTRADO 100ML</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">450ML    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -5339,14 +5339,14 @@
         <v>2</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>41.99</v>
+        <v>14.99</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>17.86</v>
+        <v>6.09</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J74" s="2" t="inlineStr">
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>83.98</v>
+        <v>29.98</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>48.26</v>
+        <v>17.8</v>
       </c>
       <c r="P74" s="5" t="inlineStr">
         <is>
@@ -5378,12 +5378,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>3603010001</t>
+          <t>3701010004</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE AMLION ECOLOGICO CONCENTRADO 100ML</t>
+          <t>HERBICIDA TOTAL SISTEMICO DUOPACK 25ML+25ML</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -5402,17 +5402,17 @@
         </is>
       </c>
       <c r="F75" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>14.99</v>
+        <v>11.99</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>6.09</v>
+        <v>4.85</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
@@ -5421,19 +5421,19 @@
         </is>
       </c>
       <c r="K75" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>29.98</v>
+        <v>47.96</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>17.8</v>
+        <v>28.56</v>
       </c>
       <c r="P75" s="5" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3701010004</t>
+          <t>3901030005</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>HERBICIDA TOTAL SISTEMICO DUOPACK 25ML+25ML</t>
+          <t>ANTIHORMIGAS TALQUERA 400 GR CAJA</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -5468,17 +5468,17 @@
         </is>
       </c>
       <c r="F76" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>11.99</v>
+        <v>8.5</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>4.85</v>
+        <v>3.52</v>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
@@ -5487,19 +5487,19 @@
         </is>
       </c>
       <c r="K76" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>47.96</v>
+        <v>8.5</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>28.56</v>
+        <v>4.98</v>
       </c>
       <c r="P76" s="5" t="inlineStr">
         <is>
@@ -5510,12 +5510,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3901030005</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS TALQUERA 400 GR CAJA</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -5537,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>8.5</v>
+        <v>11.95</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>3.52</v>
+        <v>5.56</v>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>8.5</v>
+        <v>11.95</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>4.98</v>
+        <v>6.39</v>
       </c>
       <c r="P77" s="5" t="inlineStr">
         <is>
@@ -5576,12 +5576,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3902080002</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>BIOFLOWER JABON POTASICO 250ML</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -5600,38 +5600,38 @@
         </is>
       </c>
       <c r="F78" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>11.95</v>
+        <v>12.95</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>5.56</v>
+        <v>6.31</v>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K78" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>11.95</v>
+        <v>25.9</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>6.39</v>
+        <v>13.28</v>
       </c>
       <c r="P78" s="5" t="inlineStr">
         <is>
@@ -5642,12 +5642,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3902080002</t>
+          <t>3501100009</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER JABON POTASICO 250ML</t>
+          <t>MASTER 1KG</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -5669,10 +5669,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>12.95</v>
+        <v>20.95</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>6.31</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K79" s="3" t="n">
@@ -5694,26 +5694,26 @@
         <v>0</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>25.9</v>
+        <v>41.9</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>13.28</v>
+        <v>24</v>
       </c>
       <c r="P79" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
+          <t xml:space="preserve">SIPCAM JARDIN SL                                                                                                        </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3501100009</t>
+          <t>3501110006</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>MASTER 1KG</t>
+          <t>INSECTICIDA ACCION TOTAL RTU 750 ML</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -5735,10 +5735,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>20.95</v>
+        <v>11.95</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>4.71</v>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K80" s="3" t="n">
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>41.9</v>
+        <v>23.9</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>24</v>
+        <v>14.48</v>
       </c>
       <c r="P80" s="5" t="inlineStr">
         <is>
@@ -5774,12 +5774,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3501110006</t>
+          <t>3501120000</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA ACCION TOTAL RTU 750 ML</t>
+          <t>PACK TRATAMIENTO INVIERNO</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -5801,19 +5801,19 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>11.95</v>
+        <v>15.93</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>4.71</v>
+        <v>6.87</v>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K81" s="3" t="n">
@@ -5826,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>23.9</v>
+        <v>31.86</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>14.48</v>
+        <v>18.12</v>
       </c>
       <c r="P81" s="5" t="inlineStr">
         <is>
@@ -5840,12 +5840,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>3501120000</t>
+          <t>3603020001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>PACK TRATAMIENTO INVIERNO</t>
+          <t>INSECTICIDA ACARICIDA 250ML</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -5864,38 +5864,38 @@
         </is>
       </c>
       <c r="F82" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>15.93</v>
+        <v>7.49</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>6.87</v>
+        <v>2.9</v>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K82" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>31.86</v>
+        <v>22.47</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>18.12</v>
+        <v>13.77</v>
       </c>
       <c r="P82" s="5" t="inlineStr">
         <is>
@@ -5903,212 +5903,146 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>3603020001</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>INSECTICIDA ACARICIDA 250ML</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>fitos</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="H83" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="4" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="O83" s="4" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="P83" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SIPCAM JARDIN SL                                                                                                        </t>
+    <row r="84">
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>METRICAS DE RESUMEN</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="6" t="inlineStr">
-        <is>
-          <t>METRICAS DE RESUMEN</t>
-        </is>
+      <c r="B85" s="7" t="inlineStr">
+        <is>
+          <t>Total_Unidades:</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="7" t="inlineStr">
         <is>
-          <t>Total_Unidades:</t>
+          <t>Total_Articulos:</t>
         </is>
       </c>
       <c r="C86" s="8" t="n">
-        <v>244</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="7" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="n">
-        <v>82</v>
+          <t>Total_Importe:</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>2357.94€</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="7" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
+          <t>Objetivo_Semana:</t>
         </is>
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>2365.92€</t>
+          <t>1798.25€</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
+          <t>Factor_Crecimiento:</t>
         </is>
       </c>
       <c r="C89" s="8" t="inlineStr">
         <is>
-          <t>1798.25€</t>
+          <t>5%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
+          <t>Factor_Festivo:</t>
         </is>
       </c>
       <c r="C90" s="8" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
+          <t>Articulos_A:</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C92" s="8" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Articulos_C:</t>
         </is>
       </c>
       <c r="C93" s="8" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="n">
-        <v>7</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C94" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C95" s="8" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
+          <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
       <c r="C96" s="8" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="7" t="inlineStr">
-        <is>
-          <t>Total_Ajuste_Stock:</t>
-        </is>
-      </c>
-      <c r="C97" s="8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B84:C84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/Pedido_Semana_14_2026-02-03_fitos.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_fitos.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>23.97</v>
@@ -1200,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>59.8</v>
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
         <v>13.98</v>
@@ -1398,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>55.92</v>
@@ -1946,12 +1946,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3302200023</t>
+          <t>3302200022</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>COMPO TURBO REVERDECIENTE 20GR</t>
+          <t>COMPO TURBO RAICES 50GR</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>3.99</v>
@@ -1980,28 +1980,28 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>3.99</v>
+        <v>7.98</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
       <c r="P23" s="5" t="inlineStr">
         <is>
@@ -2012,12 +2012,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302200023</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>COMPO TURBO REVERDECIENTE 20GR</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -2036,38 +2036,38 @@
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>19.96</v>
+        <v>3.99</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10.96</v>
+        <v>2.03</v>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
@@ -2078,12 +2078,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -2102,38 +2102,38 @@
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>6.99</v>
+        <v>19.96</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>3.49</v>
+        <v>10.96</v>
       </c>
       <c r="P25" s="5" t="inlineStr">
         <is>
@@ -2144,12 +2144,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>3302210013</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>REVERDECIENTE PLANTAS VERDE 500ML</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2171,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>12.49</v>
+        <v>6.99</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>5.64</v>
+        <v>3.5</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K26" s="3" t="n">
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>12.49</v>
+        <v>6.99</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6.85</v>
+        <v>3.49</v>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
@@ -2210,12 +2210,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3302210018</t>
+          <t>3302210013</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>COMPO REVITAL PLANTAS VERDES 30ML</t>
+          <t>REVERDECIENTE PLANTAS VERDE 500ML</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2234,38 +2234,38 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>1.99</v>
+        <v>12.49</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>0.79</v>
+        <v>5.64</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>75.62</v>
+        <v>12.49</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>45.6</v>
+        <v>6.85</v>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
@@ -2276,22 +2276,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3302210018</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
+          <t>COMPO REVITAL PLANTAS VERDES 30ML</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,3L     </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -2300,13 +2300,13 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>4.96</v>
+        <v>0.79</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
@@ -2319,19 +2319,19 @@
         </is>
       </c>
       <c r="K28" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>29.97</v>
+        <v>75.62</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>15.09</v>
+        <v>45.6</v>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t xml:space="preserve">1,3L     </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -2366,38 +2366,38 @@
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>3.49</v>
+        <v>4.96</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>7.99</v>
+        <v>29.97</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4.5</v>
+        <v>15.09</v>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
@@ -2408,22 +2408,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3402040003</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 1,3L</t>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2432,38 +2432,38 @@
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>4.72</v>
+        <v>3.49</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>29.97</v>
+        <v>7.99</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>15.81</v>
+        <v>4.5</v>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
@@ -2474,12 +2474,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3402060001</t>
+          <t>3402040003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE CACTUS 500ML</t>
+          <t>FERTILIZANTE PLANTAS VERDES 1,3L</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>6.99</v>
+        <v>9.99</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>3.39</v>
+        <v>4.72</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -2517,19 +2517,19 @@
         </is>
       </c>
       <c r="K31" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>34.95</v>
+        <v>29.97</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>18</v>
+        <v>15.81</v>
       </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3402060001</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>BIO FERTILIZANTE CACTUS 500ML</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2564,13 +2564,13 @@
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>6.99</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
@@ -2579,23 +2579,23 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K32" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>6.99</v>
+        <v>34.95</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>3.42</v>
+        <v>18</v>
       </c>
       <c r="P32" s="5" t="inlineStr">
         <is>
@@ -2606,22 +2606,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7I5KG    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>44.95</v>
+        <v>6.99</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>23.92</v>
+        <v>3.57</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
@@ -2645,23 +2645,23 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>179.8</v>
+        <v>6.99</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>84.12</v>
+        <v>3.42</v>
       </c>
       <c r="P33" s="5" t="inlineStr">
         <is>
@@ -2672,22 +2672,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3501020002</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE ACCION 750ML</t>
+          <t>ABONO CESPED GRANDES JARDINES</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">7I5KG    </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>8.99</v>
+        <v>44.95</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>4.37</v>
+        <v>23.92</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2715,19 +2715,19 @@
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>8.99</v>
+        <v>179.8</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>4.62</v>
+        <v>84.12</v>
       </c>
       <c r="P34" s="5" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3501040004</t>
+          <t>3501020002</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>COMPO INSECT PULGON 750ML</t>
+          <t>TRIPLE ACCION 750ML</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>13.99</v>
+        <v>8.99</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>6.77</v>
+        <v>4.37</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
@@ -2777,23 +2777,23 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>27.98</v>
+        <v>8.99</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>14.44</v>
+        <v>4.62</v>
       </c>
       <c r="P35" s="5" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3501040004</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>COMPO INSECT PULGON 750ML</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2828,13 +2828,13 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>10.49</v>
+        <v>13.99</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>4.52</v>
+        <v>6.77</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
@@ -2843,23 +2843,23 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K36" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>52.45</v>
+        <v>27.98</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>29.85</v>
+        <v>14.44</v>
       </c>
       <c r="P36" s="5" t="inlineStr">
         <is>
@@ -2870,12 +2870,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3502010008</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>COMPO DUAXO FUNGICIDA POLIVALENTE 750 ML</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>14.99</v>
+        <v>10.49</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>7.62</v>
+        <v>4.52</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
@@ -2909,23 +2909,23 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>29.98</v>
+        <v>52.45</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>14.74</v>
+        <v>29.85</v>
       </c>
       <c r="P37" s="5" t="inlineStr">
         <is>
@@ -2936,22 +2936,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3502010008</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
+          <t>COMPO DUAXO FUNGICIDA POLIVALENTE 750 ML</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">250GR    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>17.87</v>
+        <v>14.99</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>7.87</v>
+        <v>7.62</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>17.87</v>
+        <v>29.98</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>10</v>
+        <v>14.74</v>
       </c>
       <c r="P38" s="5" t="inlineStr">
         <is>
@@ -3002,22 +3002,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">250GR    </t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>14.95</v>
+        <v>17.87</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>7.62</v>
+        <v>7.87</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
@@ -3041,23 +3041,23 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>29.9</v>
+        <v>17.87</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>14.66</v>
+        <v>10</v>
       </c>
       <c r="P39" s="5" t="inlineStr">
         <is>
@@ -3068,12 +3068,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -3095,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>16.95</v>
+        <v>14.95</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>7.08</v>
+        <v>7.62</v>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K40" s="3" t="n">
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>33.9</v>
+        <v>29.9</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>19.74</v>
+        <v>14.66</v>
       </c>
       <c r="P40" s="5" t="inlineStr">
         <is>
@@ -3134,12 +3134,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -3161,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>14.49</v>
+        <v>16.95</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>6.63</v>
+        <v>7.08</v>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K41" s="3" t="n">
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>28.98</v>
+        <v>33.9</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>15.72</v>
+        <v>19.74</v>
       </c>
       <c r="P41" s="5" t="inlineStr">
         <is>
@@ -3200,22 +3200,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>COMPO COBRE FUNGICIDA BIOLOGICO</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50G      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>3.99</v>
+        <v>14.49</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.79</v>
+        <v>6.63</v>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K42" s="3" t="n">
@@ -3249,13 +3249,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>3.99</v>
+        <v>28.98</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2.2</v>
+        <v>15.72</v>
       </c>
       <c r="P42" s="5" t="inlineStr">
         <is>
@@ -3266,22 +3266,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3603020002</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA AXIENDO 750ML</t>
+          <t>COMPO COBRE FUNGICIDA BIOLOGICO</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">50G      </t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -3290,38 +3290,38 @@
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>14.99</v>
+        <v>3.99</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>7.2</v>
+        <v>1.79</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>29.98</v>
+        <v>3.99</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>15.58</v>
+        <v>2.2</v>
       </c>
       <c r="P43" s="5" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3701020003</t>
+          <t>3603020002</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>HERBISTOP 500ML</t>
+          <t>INSECTICIDA AXIENDO 750ML</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -3359,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>22.49</v>
+        <v>14.99</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>9.69</v>
+        <v>7.2</v>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K44" s="3" t="n">
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>44.98</v>
+        <v>29.98</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>25.6</v>
+        <v>15.58</v>
       </c>
       <c r="P44" s="5" t="inlineStr">
         <is>
@@ -3398,12 +3398,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3901010002</t>
+          <t>3701020003</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>ANTILIMACOS 500GR</t>
+          <t>HERBISTOP 500ML</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>10.5</v>
+        <v>22.49</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>4.73</v>
+        <v>9.69</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
@@ -3447,13 +3447,13 @@
         <v>2</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>31.5</v>
+        <v>44.98</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>17.31</v>
+        <v>25.6</v>
       </c>
       <c r="P45" s="5" t="inlineStr">
         <is>
@@ -3464,12 +3464,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3901030008</t>
+          <t>3901010002</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS GEL 10GR</t>
+          <t>ANTILIMACOS 500GR</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -3491,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>7.99</v>
+        <v>10.5</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>3.21</v>
+        <v>4.73</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K46" s="3" t="n">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>23.97</v>
+        <v>31.5</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>14.34</v>
+        <v>17.31</v>
       </c>
       <c r="P46" s="5" t="inlineStr">
         <is>
@@ -3530,12 +3530,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3901030008</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS GEL 10GR</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3554,38 +3554,38 @@
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>12.95</v>
+        <v>7.99</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>5.86</v>
+        <v>3.21</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>25.9</v>
+        <v>23.97</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>14.18</v>
+        <v>14.34</v>
       </c>
       <c r="P47" s="5" t="inlineStr">
         <is>
@@ -3596,12 +3596,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3901080001</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>BARRERA ANTICUCARACHAS GEL 10GR</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -3620,38 +3620,38 @@
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>7.99</v>
+        <v>12.95</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>3.79</v>
+        <v>5.86</v>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>7.99</v>
+        <v>25.9</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>4.2</v>
+        <v>14.18</v>
       </c>
       <c r="P48" s="5" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3301080006</t>
+          <t>3901080001</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>VIGORIZANTE VITABONSAI 30CC</t>
+          <t>BARRERA ANTICUCARACHAS GEL 10GR</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3689,19 +3689,19 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>9.69</v>
+        <v>7.99</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>4.29</v>
+        <v>3.79</v>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K49" s="3" t="n">
@@ -3714,36 +3714,36 @@
         <v>0</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>9.69</v>
+        <v>7.99</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="P49" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3301030002</t>
+          <t>3301080006</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ABONO NITROFLOWER AZUL</t>
+          <t>VIGORIZANTE VITABONSAI 30CC</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5KG      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -3752,17 +3752,17 @@
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>14.99</v>
+        <v>9.69</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>6.94</v>
+        <v>4.29</v>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -3771,23 +3771,23 @@
         </is>
       </c>
       <c r="K50" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>104.93</v>
+        <v>9.69</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>56.35</v>
+        <v>5.4</v>
       </c>
       <c r="P50" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,5Kg    </t>
+          <t xml:space="preserve">5KG      </t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>7.99</v>
+        <v>14.99</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>3.42</v>
+        <v>6.94</v>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
@@ -3840,16 +3840,16 @@
         <v>3</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>79.90000000000001</v>
+        <v>104.93</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>45.7</v>
+        <v>56.35</v>
       </c>
       <c r="P51" s="5" t="inlineStr">
         <is>
@@ -3860,17 +3860,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3301030002</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
+          <t>ABONO NITROFLOWER AZUL</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,3L     </t>
+          <t xml:space="preserve">2,5Kg    </t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -3884,13 +3884,13 @@
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>2.95</v>
+        <v>3.42</v>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
@@ -3903,19 +3903,19 @@
         </is>
       </c>
       <c r="K52" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>41.94</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>24.24</v>
+        <v>45.7</v>
       </c>
       <c r="P52" s="5" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t xml:space="preserve">1,3L     </t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -3950,17 +3950,17 @@
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>2.58</v>
+        <v>2.95</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -3969,19 +3969,19 @@
         </is>
       </c>
       <c r="K53" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>5.99</v>
+        <v>41.94</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>3.41</v>
+        <v>24.24</v>
       </c>
       <c r="P53" s="5" t="inlineStr">
         <is>
@@ -3992,22 +3992,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3302030001</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS FLOR 10506 BLISTER 20UDS</t>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -4019,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>4.49</v>
+        <v>5.99</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>4.49</v>
+        <v>5.99</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2.63</v>
+        <v>3.41</v>
       </c>
       <c r="P54" s="5" t="inlineStr">
         <is>
@@ -4058,12 +4058,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>3302040001</t>
+          <t>3302030001</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS CON FLOR 1L</t>
+          <t>ABONO CLAVOS FLOR 10506 BLISTER 20UDS</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -4085,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>7.5</v>
+        <v>4.49</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>3.42</v>
+        <v>1.86</v>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>7.5</v>
+        <v>4.49</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>4.08</v>
+        <v>2.63</v>
       </c>
       <c r="P55" s="5" t="inlineStr">
         <is>
@@ -4124,22 +4124,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3302040001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>ABONO LIQUIDO PLANTAS CON FLOR 1L</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500ML    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -4148,38 +4148,38 @@
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>2.33</v>
+        <v>3.42</v>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K56" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>33.75</v>
+        <v>7.5</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>22.1</v>
+        <v>4.08</v>
       </c>
       <c r="P56" s="5" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1L       </t>
+          <t xml:space="preserve">500ML    </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -4214,38 +4214,38 @@
         </is>
       </c>
       <c r="F57" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>6.99</v>
+        <v>6.75</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K57" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>13.98</v>
+        <v>33.75</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>8.48</v>
+        <v>22.1</v>
       </c>
       <c r="P57" s="5" t="inlineStr">
         <is>
@@ -4256,22 +4256,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">1L       </t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -4283,14 +4283,14 @@
         <v>2</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>8.49</v>
+        <v>6.99</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -4302,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>16.98</v>
+        <v>13.98</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>9.48</v>
+        <v>8.48</v>
       </c>
       <c r="P58" s="5" t="inlineStr">
         <is>
@@ -4322,12 +4322,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -4346,17 +4346,17 @@
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>6.5</v>
+        <v>8.49</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr">
@@ -4368,16 +4368,16 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>6.5</v>
+        <v>16.98</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>4.05</v>
+        <v>9.48</v>
       </c>
       <c r="P59" s="5" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3302200007</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>AMINOR 400ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -4412,38 +4412,38 @@
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>10.95</v>
+        <v>6.5</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>4.32</v>
+        <v>2.45</v>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K60" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>164.25</v>
+        <v>6.5</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>99.45</v>
+        <v>4.05</v>
       </c>
       <c r="P60" s="5" t="inlineStr">
         <is>
@@ -4454,12 +4454,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>3401030001</t>
+          <t>3302200007</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTIL HUERTA Y FRUTALES 1L</t>
+          <t>AMINOR 400ML</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>10.95</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>3.85</v>
+        <v>4.32</v>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
@@ -4497,19 +4497,19 @@
         </is>
       </c>
       <c r="K61" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>164.25</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>4.94</v>
+        <v>99.45</v>
       </c>
       <c r="P61" s="5" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3401040001</t>
+          <t>3401030001</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO GUANO 1300ML</t>
+          <t>BIOFLOWER FERTIL HUERTA Y FRUTALES 1L</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -4547,10 +4547,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>7.95</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
@@ -4559,23 +4559,23 @@
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>7.95</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4.95</v>
+        <v>4.94</v>
       </c>
       <c r="P62" s="5" t="inlineStr">
         <is>
@@ -4586,12 +4586,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3402030001</t>
+          <t>3401040001</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS VERDES</t>
+          <t>ABONO LIQUIDO GUANO 1300ML</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>3.99</v>
+        <v>7.95</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>1.79</v>
+        <v>3</v>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
@@ -4625,23 +4625,23 @@
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K63" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>39.9</v>
+        <v>7.95</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>22</v>
+        <v>4.95</v>
       </c>
       <c r="P63" s="5" t="inlineStr">
         <is>
@@ -4652,22 +4652,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3402040002</t>
+          <t>3402030001</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS VERDES</t>
+          <t>ABONO CLAVOS VERDES</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">500Ml    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -4676,38 +4676,38 @@
         </is>
       </c>
       <c r="F64" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>5.5</v>
+        <v>3.99</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K64" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M64" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>11</v>
+        <v>39.9</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>6.62</v>
+        <v>22</v>
       </c>
       <c r="P64" s="5" t="inlineStr">
         <is>
@@ -4718,22 +4718,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3402050002</t>
+          <t>3402040002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>BRILL PLANTA NATURAL 800ML</t>
+          <t>ABONO LIQUIDO PLANTAS VERDES</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">500Ml    </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>9.99</v>
+        <v>5.5</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>4.59</v>
+        <v>2.19</v>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
@@ -4757,23 +4757,23 @@
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>29.97</v>
+        <v>11</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>16.2</v>
+        <v>6.62</v>
       </c>
       <c r="P65" s="5" t="inlineStr">
         <is>
@@ -4784,12 +4784,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3501010004</t>
+          <t>3402050002</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE ACCION 750ML AFIDOR</t>
+          <t>BRILL PLANTA NATURAL 800ML</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -4808,17 +4808,17 @@
         </is>
       </c>
       <c r="F66" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>13.99</v>
+        <v>9.99</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>6.16</v>
+        <v>4.59</v>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
@@ -4827,19 +4827,19 @@
         </is>
       </c>
       <c r="K66" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>55.96</v>
+        <v>29.97</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>31.32</v>
+        <v>16.2</v>
       </c>
       <c r="P66" s="5" t="inlineStr">
         <is>
@@ -4850,12 +4850,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3501070002</t>
+          <t>3501010004</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>ANTICOCHINILLAS TRATAMIENTO COMPLETO</t>
+          <t>TRIPLE ACCION 750ML AFIDOR</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="F67" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>19.99</v>
+        <v>13.99</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>6.16</v>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
@@ -4893,19 +4893,19 @@
         </is>
       </c>
       <c r="K67" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>39.98</v>
+        <v>55.96</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>21.9</v>
+        <v>31.32</v>
       </c>
       <c r="P67" s="5" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501070002</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>ANTICOCHINILLAS TRATAMIENTO COMPLETO</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4940,13 +4940,13 @@
         </is>
       </c>
       <c r="F68" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>11.95</v>
+        <v>19.99</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>4.56</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K68" s="3" t="n">
@@ -4965,13 +4965,13 @@
         <v>2</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>11.95</v>
+        <v>39.98</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>7.39</v>
+        <v>21.9</v>
       </c>
       <c r="P68" s="5" t="inlineStr">
         <is>
@@ -4982,12 +4982,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3501140004</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELOS 500GR</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -5009,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>9.99</v>
+        <v>11.95</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K69" s="3" t="n">
@@ -5034,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>9.99</v>
+        <v>11.95</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>5.36</v>
+        <v>7.39</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5048,12 +5048,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3502010006</t>
+          <t>3501140004</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER AZUFRE/SOFREX CAJA</t>
+          <t>INSECTICIDA SUELOS 500GR</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -5075,19 +5075,19 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>7.49</v>
+        <v>9.99</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>3.23</v>
+        <v>4.63</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K70" s="3" t="n">
@@ -5100,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>7.49</v>
+        <v>9.99</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>4.26</v>
+        <v>5.36</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5114,12 +5114,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3502010006</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>BIOFLOWER AZUFRE/SOFREX CAJA</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -5141,10 +5141,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>10.97</v>
+        <v>7.49</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>4.32</v>
+        <v>3.23</v>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K71" s="3" t="n">
@@ -5166,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>10.97</v>
+        <v>7.49</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>6.65</v>
+        <v>4.26</v>
       </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
@@ -5180,12 +5180,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3502010013</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA POLIVALENTE SISTEMICO 10 ML</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -5204,17 +5204,17 @@
         </is>
       </c>
       <c r="F72" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>12.95</v>
+        <v>10.97</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>5.48</v>
+        <v>4.32</v>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr">
@@ -5226,16 +5226,16 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>25.9</v>
+        <v>10.97</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>14.94</v>
+        <v>6.65</v>
       </c>
       <c r="P72" s="5" t="inlineStr">
         <is>
@@ -5246,22 +5246,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3502010013</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
+          <t>FUNGICIDA POLIVALENTE SISTEMICO 10 ML</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">450ML    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -5273,10 +5273,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>41.99</v>
+        <v>12.95</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>17.86</v>
+        <v>5.48</v>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>83.98</v>
+        <v>25.9</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>48.26</v>
+        <v>14.94</v>
       </c>
       <c r="P73" s="5" t="inlineStr">
         <is>
@@ -5312,22 +5312,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>3603010001</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>TRIPLE AMLION ECOLOGICO CONCENTRADO 100ML</t>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">450ML    </t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -5339,14 +5339,14 @@
         <v>2</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>14.99</v>
+        <v>41.99</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>6.09</v>
+        <v>17.86</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J74" s="2" t="inlineStr">
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>29.98</v>
+        <v>83.98</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>17.8</v>
+        <v>48.26</v>
       </c>
       <c r="P74" s="5" t="inlineStr">
         <is>
@@ -5378,12 +5378,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>3701010004</t>
+          <t>3603010001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>HERBICIDA TOTAL SISTEMICO DUOPACK 25ML+25ML</t>
+          <t>TRIPLE AMLION ECOLOGICO CONCENTRADO 100ML</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -5402,17 +5402,17 @@
         </is>
       </c>
       <c r="F75" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>11.99</v>
+        <v>14.99</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>4.85</v>
+        <v>6.09</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
@@ -5421,19 +5421,19 @@
         </is>
       </c>
       <c r="K75" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>47.96</v>
+        <v>29.98</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>28.56</v>
+        <v>17.8</v>
       </c>
       <c r="P75" s="5" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3901030005</t>
+          <t>3701010004</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS TALQUERA 400 GR CAJA</t>
+          <t>HERBICIDA TOTAL SISTEMICO DUOPACK 25ML+25ML</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -5468,17 +5468,17 @@
         </is>
       </c>
       <c r="F76" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>8.5</v>
+        <v>11.99</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>3.52</v>
+        <v>4.85</v>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
@@ -5487,19 +5487,19 @@
         </is>
       </c>
       <c r="K76" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>8.5</v>
+        <v>47.96</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>4.98</v>
+        <v>28.56</v>
       </c>
       <c r="P76" s="5" t="inlineStr">
         <is>
@@ -5510,12 +5510,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3901030005</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>ANTIHORMIGAS TALQUERA 400 GR CAJA</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -5537,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>11.95</v>
+        <v>8.5</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>5.56</v>
+        <v>3.52</v>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>11.95</v>
+        <v>8.5</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>6.39</v>
+        <v>4.98</v>
       </c>
       <c r="P77" s="5" t="inlineStr">
         <is>
@@ -5576,12 +5576,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3902080002</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER JABON POTASICO 250ML</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -5600,38 +5600,38 @@
         </is>
       </c>
       <c r="F78" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>12.95</v>
+        <v>11.95</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>6.31</v>
+        <v>5.56</v>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K78" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>25.9</v>
+        <v>11.95</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>13.28</v>
+        <v>6.39</v>
       </c>
       <c r="P78" s="5" t="inlineStr">
         <is>
@@ -5642,12 +5642,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3501100009</t>
+          <t>3902080002</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>MASTER 1KG</t>
+          <t>BIOFLOWER JABON POTASICO 250ML</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -5669,10 +5669,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>20.95</v>
+        <v>12.95</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K79" s="3" t="n">
@@ -5694,26 +5694,26 @@
         <v>0</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>41.9</v>
+        <v>25.9</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>24</v>
+        <v>13.28</v>
       </c>
       <c r="P79" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SIPCAM JARDIN SL                                                                                                        </t>
+          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3501110006</t>
+          <t>3501100009</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA ACCION TOTAL RTU 750 ML</t>
+          <t>MASTER 1KG</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -5735,10 +5735,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>11.95</v>
+        <v>20.95</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>4.71</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K80" s="3" t="n">
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>23.9</v>
+        <v>41.9</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>14.48</v>
+        <v>24</v>
       </c>
       <c r="P80" s="5" t="inlineStr">
         <is>
@@ -5774,12 +5774,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3501120000</t>
+          <t>3501110006</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>PACK TRATAMIENTO INVIERNO</t>
+          <t>INSECTICIDA ACCION TOTAL RTU 750 ML</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -5801,19 +5801,19 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>15.93</v>
+        <v>11.95</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>6.87</v>
+        <v>4.71</v>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K81" s="3" t="n">
@@ -5826,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>31.86</v>
+        <v>23.9</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>18.12</v>
+        <v>14.48</v>
       </c>
       <c r="P81" s="5" t="inlineStr">
         <is>
@@ -5840,209 +5840,275 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
+          <t>3501120000</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>PACK TRATAMIENTO INVIERNO</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>fitos</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 30%</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="O82" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="P82" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SIPCAM JARDIN SL                                                                                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
           <t>3603020001</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>INSECTICIDA ACARICIDA 250ML</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>fitos</t>
-        </is>
-      </c>
-      <c r="F82" s="3" t="n">
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>fitos</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G82" s="4" t="n">
+      <c r="G83" s="4" t="n">
         <v>7.49</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="H83" s="4" t="n">
         <v>2.9</v>
       </c>
-      <c r="I82" s="2" t="inlineStr">
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
+      <c r="J83" s="2" t="inlineStr">
         <is>
           <t>AUMENTAR 19%</t>
         </is>
       </c>
-      <c r="K82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" s="3" t="n">
+      <c r="K83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4" t="n">
+      <c r="M83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4" t="n">
         <v>22.47</v>
       </c>
-      <c r="O82" s="4" t="n">
+      <c r="O83" s="4" t="n">
         <v>13.77</v>
       </c>
-      <c r="P82" s="5" t="inlineStr">
+      <c r="P83" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">SIPCAM JARDIN SL                                                                                                        </t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" s="6" t="inlineStr">
+    <row r="85">
+      <c r="B85" s="6" t="inlineStr">
         <is>
           <t>METRICAS DE RESUMEN</t>
         </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="7" t="inlineStr">
-        <is>
-          <t>Total_Unidades:</t>
-        </is>
-      </c>
-      <c r="C85" s="8" t="n">
-        <v>270</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="7" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
+          <t>Total_Unidades:</t>
         </is>
       </c>
       <c r="C86" s="8" t="n">
-        <v>81</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="7" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
-        <is>
-          <t>2357.94€</t>
-        </is>
+          <t>Total_Articulos:</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
+          <t>Total_Importe:</t>
         </is>
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>1798.25€</t>
+          <t>2365.92€</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
+          <t>Objetivo_Semana:</t>
         </is>
       </c>
       <c r="C89" s="8" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1798.25€</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
+          <t>Factor_Crecimiento:</t>
         </is>
       </c>
       <c r="C90" s="8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>5%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="n">
-        <v>52</v>
+          <t>Factor_Festivo:</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Articulos_A:</t>
         </is>
       </c>
       <c r="C92" s="8" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C93" s="8" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Articulos_C:</t>
+        </is>
+      </c>
+      <c r="C94" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="n">
-        <v>114</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C95" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="7" t="inlineStr">
         <is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C96" s="8" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="7" t="inlineStr">
+        <is>
           <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
-      <c r="C96" s="8" t="n">
-        <v>28</v>
+      <c r="C97" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
